--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H2">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N2">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O2">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P2">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q2">
-        <v>4.20628676804</v>
+        <v>8.508878605186668</v>
       </c>
       <c r="R2">
-        <v>37.85658091236</v>
+        <v>76.57990744668001</v>
       </c>
       <c r="S2">
-        <v>0.02723535011519133</v>
+        <v>0.03499739807021818</v>
       </c>
       <c r="T2">
-        <v>0.02723535011519133</v>
+        <v>0.03499739807021818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H3">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q3">
-        <v>11.67670921273833</v>
+        <v>17.79321833688056</v>
       </c>
       <c r="R3">
-        <v>105.090382914645</v>
+        <v>160.138965031925</v>
       </c>
       <c r="S3">
-        <v>0.07560570192659398</v>
+        <v>0.07318430241871492</v>
       </c>
       <c r="T3">
-        <v>0.07560570192659399</v>
+        <v>0.07318430241871493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H4">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N4">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q4">
-        <v>3.314681422788333</v>
+        <v>10.36390219801445</v>
       </c>
       <c r="R4">
-        <v>29.832132805095</v>
+        <v>93.27511978213002</v>
       </c>
       <c r="S4">
-        <v>0.02146228111594657</v>
+        <v>0.0426271930314798</v>
       </c>
       <c r="T4">
-        <v>0.02146228111594657</v>
+        <v>0.04262719303147981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H5">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N5">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O5">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P5">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q5">
-        <v>34.404374457182</v>
+        <v>57.30087611213778</v>
       </c>
       <c r="R5">
-        <v>309.639370114638</v>
+        <v>515.70788500924</v>
       </c>
       <c r="S5">
-        <v>0.2227654069986573</v>
+        <v>0.2356810649344959</v>
       </c>
       <c r="T5">
-        <v>0.2227654069986574</v>
+        <v>0.2356810649344959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H6">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N6">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O6">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P6">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q6">
-        <v>3.430710394813334</v>
+        <v>4.554319194562667</v>
       </c>
       <c r="R6">
-        <v>30.87639355332001</v>
+        <v>40.988872751064</v>
       </c>
       <c r="S6">
-        <v>0.02221355887014475</v>
+        <v>0.01873211843612245</v>
       </c>
       <c r="T6">
-        <v>0.02221355887014475</v>
+        <v>0.01873211843612246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H7">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q7">
-        <v>9.523698664040557</v>
+        <v>9.523698664040555</v>
       </c>
       <c r="R7">
-        <v>85.71328797636501</v>
+        <v>85.713287976365</v>
       </c>
       <c r="S7">
-        <v>0.06166514120662015</v>
+        <v>0.03917139833715142</v>
       </c>
       <c r="T7">
-        <v>0.06166514120662016</v>
+        <v>0.03917139833715143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H8">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N8">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q8">
-        <v>2.703503740890556</v>
+        <v>5.547207910830444</v>
       </c>
       <c r="R8">
-        <v>24.33153366801501</v>
+        <v>49.924871197474</v>
       </c>
       <c r="S8">
-        <v>0.01750495745566904</v>
+        <v>0.02281591411061592</v>
       </c>
       <c r="T8">
-        <v>0.01750495745566904</v>
+        <v>0.02281591411061593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H9">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N9">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O9">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P9">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q9">
-        <v>28.06072233926734</v>
+        <v>30.66990282170578</v>
       </c>
       <c r="R9">
-        <v>252.5465010534061</v>
+        <v>276.029125395352</v>
       </c>
       <c r="S9">
-        <v>0.1816907974991041</v>
+        <v>0.1261466813231844</v>
       </c>
       <c r="T9">
-        <v>0.1816907974991041</v>
+        <v>0.1261466813231845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H10">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N10">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O10">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P10">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q10">
-        <v>2.0393808946</v>
+        <v>8.101926529301332</v>
       </c>
       <c r="R10">
-        <v>18.3544280514</v>
+        <v>72.91733876371198</v>
       </c>
       <c r="S10">
-        <v>0.01320481834588386</v>
+        <v>0.03332358599037734</v>
       </c>
       <c r="T10">
-        <v>0.01320481834588386</v>
+        <v>0.03332358599037735</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H11">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q11">
-        <v>5.661349069491666</v>
+        <v>16.94222639365778</v>
       </c>
       <c r="R11">
-        <v>50.95214162542499</v>
+        <v>152.48003754292</v>
       </c>
       <c r="S11">
-        <v>0.03665675512270539</v>
+        <v>0.06968413451487833</v>
       </c>
       <c r="T11">
-        <v>0.0366567551227054</v>
+        <v>0.06968413451487834</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H12">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N12">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q12">
-        <v>1.607093937741667</v>
+        <v>9.868230358110221</v>
       </c>
       <c r="R12">
-        <v>14.463845439675</v>
+        <v>88.81407322299199</v>
       </c>
       <c r="S12">
-        <v>0.01040579695967595</v>
+        <v>0.04058847259624507</v>
       </c>
       <c r="T12">
-        <v>0.01040579695967595</v>
+        <v>0.04058847259624509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H13">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N13">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O13">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P13">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q13">
-        <v>16.68065631943</v>
+        <v>54.56036099071287</v>
       </c>
       <c r="R13">
-        <v>150.12590687487</v>
+        <v>491.0432489164159</v>
       </c>
       <c r="S13">
-        <v>0.1080058350901611</v>
+        <v>0.2244092037325395</v>
       </c>
       <c r="T13">
-        <v>0.1080058350901611</v>
+        <v>0.2244092037325396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H14">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I14">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J14">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N14">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O14">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P14">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q14">
-        <v>2.443084980746667</v>
+        <v>0.8506575018746667</v>
       </c>
       <c r="R14">
-        <v>21.98776482672</v>
+        <v>7.655917516872</v>
       </c>
       <c r="S14">
-        <v>0.01581876806816139</v>
+        <v>0.003498792331621466</v>
       </c>
       <c r="T14">
-        <v>0.0158187680681614</v>
+        <v>0.003498792331621467</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H15">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I15">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J15">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>93.234415</v>
       </c>
       <c r="O15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q15">
-        <v>6.782037097171111</v>
+        <v>1.778840122543889</v>
       </c>
       <c r="R15">
-        <v>61.03833387454</v>
+        <v>16.009561102895</v>
       </c>
       <c r="S15">
-        <v>0.04391311506365526</v>
+        <v>0.0073164489424019</v>
       </c>
       <c r="T15">
-        <v>0.04391311506365526</v>
+        <v>0.007316448942401903</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H16">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I16">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J16">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N16">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q16">
-        <v>1.925224989771112</v>
+        <v>1.036109640589111</v>
       </c>
       <c r="R16">
-        <v>17.32702490794</v>
+        <v>9.324986765302</v>
       </c>
       <c r="S16">
-        <v>0.01246566854293783</v>
+        <v>0.004261565268305094</v>
       </c>
       <c r="T16">
-        <v>0.01246566854293783</v>
+        <v>0.004261565268305096</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H17">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I17">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J17">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N17">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O17">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P17">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q17">
-        <v>19.98266289093067</v>
+        <v>5.728536319588444</v>
       </c>
       <c r="R17">
-        <v>179.843966018376</v>
+        <v>51.55682687629599</v>
       </c>
       <c r="S17">
-        <v>0.1293860476188919</v>
+        <v>0.02356172596164816</v>
       </c>
       <c r="T17">
-        <v>0.1293860476188919</v>
+        <v>0.02356172596164817</v>
       </c>
     </row>
   </sheetData>
